--- a/xlsx/Smart_intext.xlsx
+++ b/xlsx/Smart_intext.xlsx
@@ -29,19 +29,19 @@
     <t>SMART原则</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Smart</t>
+    <t>政策_政策_混合动力车辆_Smart</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/S.M.A.R.T.</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93</t>
   </si>
   <si>
-    <t>月球軌道</t>
+    <t>月球轨道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Smart_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>Smart (雜誌)</t>
+    <t>Smart (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Smart%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>Smart汽車</t>
+    <t>Smart汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E9%A9%AC%E7%89%B9</t>
